--- a/test_data/test_case_data.xlsx
+++ b/test_data/test_case_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pycharm_project_dir\InterfaceAutoTestWithPytest\InterfaceAutoTestWithPytest\InterfaceAutoTestWithPytest\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDCF31E-C16F-4AF6-B705-CED5AD448107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65168D49-DC63-4F27-AE1A-62656AC7CA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="74">
   <si>
     <t>编号</t>
   </si>
@@ -100,10 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注册成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户名重复，注册失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/login/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,6 +285,32 @@
   </si>
   <si>
     <t>{"userid":${userid}, "token": "123", "articleId":[]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>关联随机数1，登录成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联随机数2，登录成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用随机数1，注册成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用随机数2，注册成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -375,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -424,6 +442,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -767,7 +788,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -817,11 +838,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8">
-        <v>1</v>
+      <c r="A2" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>10</v>
@@ -843,11 +864,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
-        <v>2</v>
+      <c r="A3" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>10</v>
@@ -862,16 +883,16 @@
         <v>9</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
-        <v>2</v>
+      <c r="A4" s="17" t="s">
+        <v>69</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>10</v>
@@ -907,12 +928,12 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="3" width="22.375" customWidth="1"/>
     <col min="6" max="6" width="42.75" customWidth="1"/>
     <col min="7" max="7" width="13.125" customWidth="1"/>
@@ -954,82 +975,82 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8">
-        <v>1</v>
+      <c r="A2" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
-        <v>2</v>
+      <c r="A3" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
-        <v>3</v>
+      <c r="A4" s="17" t="s">
+        <v>69</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -1046,7 +1067,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1096,23 +1117,23 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13">
-        <v>1</v>
+      <c r="A2" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>7</v>
@@ -1125,26 +1146,26 @@
       <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13">
-        <v>2</v>
+      <c r="A3" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -1164,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1212,54 +1233,54 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13">
-        <v>1</v>
+      <c r="A2" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="H2" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13">
-        <v>2</v>
+      <c r="A3" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -1276,7 +1297,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1323,48 +1344,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13">
-        <v>1</v>
+      <c r="A2" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13">
-        <v>2</v>
+      <c r="A3" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -1382,7 +1403,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1429,52 +1450,52 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13">
-        <v>1</v>
+      <c r="A2" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13">
-        <v>2</v>
+      <c r="A3" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -1492,7 +1513,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1539,48 +1560,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13">
-        <v>1</v>
+      <c r="A2" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13">
-        <v>2</v>
+      <c r="A3" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -1596,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1643,52 +1664,52 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13">
-        <v>1</v>
+      <c r="A2" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13">
-        <v>2</v>
+      <c r="A3" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
